--- a/biology/Biochimie/ELISPOT/ELISPOT.xlsx
+++ b/biology/Biochimie/ELISPOT/ELISPOT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ELISPOT (enzyme-linked immunospot) est un test d'immunologie basé sur la technique ELISA. Cette technique immunoenzymatique permet de dénombrer des cellules à partir de leur sécrétion (anticorps ou cytokines). Cette technique a été développée par l'immunobiologiste français Cecile Czerkinsky en 1986.
 Son principe consiste à capturer les molécules sécrétées par des cellules sur un support solide sensibilisé. Après élimination des cellules, l'immunocomplexe est révélé par une méthode ELISA utilisant un substrat chromogène insoluble, dont la précipitation localisée génère des taches colorées ou immunospots.
